--- a/Linea Base/Rector Simuleitor/LB1/RS-CP.xlsx
+++ b/Linea Base/Rector Simuleitor/LB1/RS-CP.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="127">
   <si>
     <t>CRONOGRAMA DEL PROYECTO</t>
   </si>
@@ -28,12 +28,38 @@
     <t>https://github.com/AndreBN14/CodeCrafter.git</t>
   </si>
   <si>
-    <t>JOSHÚA ANDRÉ</t>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>JOSHÚA</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Calibri"/>
+        <color rgb="FFFFFFFF"/>
+        <sz val="9.0"/>
+      </rPr>
+      <t>ANDRÉ</t>
+    </r>
   </si>
   <si>
     <t>Jefe de proyecto, Programador Full-Stack</t>
   </si>
   <si>
+    <t>BARRANTES</t>
+  </si>
+  <si>
     <t>Grupo:</t>
   </si>
   <si>
@@ -46,6 +72,9 @@
     <t>Analista QA, Tester</t>
   </si>
   <si>
+    <t>CALDERON</t>
+  </si>
+  <si>
     <t>Proyecto:</t>
   </si>
   <si>
@@ -58,6 +87,9 @@
     <t>Programador Front-End</t>
   </si>
   <si>
+    <t>GAMARRA</t>
+  </si>
+  <si>
     <t xml:space="preserve">Enfoque de desarrollo: </t>
   </si>
   <si>
@@ -70,6 +102,9 @@
     <t xml:space="preserve">Diseñador UX, Programador </t>
   </si>
   <si>
+    <t>RIDOUTT</t>
+  </si>
+  <si>
     <t>Inicio:</t>
   </si>
   <si>
@@ -79,6 +114,9 @@
     <t>Programador Full-Stack, Diseñador Web</t>
   </si>
   <si>
+    <t>SERNA</t>
+  </si>
+  <si>
     <t>Fin:</t>
   </si>
   <si>
@@ -86,6 +124,9 @@
   </si>
   <si>
     <t>Programador Back-End, DBA</t>
+  </si>
+  <si>
+    <t>TORO</t>
   </si>
   <si>
     <t xml:space="preserve">Actividad </t>
@@ -385,7 +426,7 @@
     <numFmt numFmtId="165" formatCode="d/m/yyyy"/>
     <numFmt numFmtId="166" formatCode="D/M/YYYY"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="17">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -404,6 +445,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12.0"/>
       <color rgb="FF434343"/>
       <name val="Roboto"/>
@@ -411,6 +457,23 @@
     <font>
       <u/>
       <color rgb="FF0000FF"/>
+    </font>
+    <font>
+      <sz val="9.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Roboto"/>
     </font>
     <font>
       <sz val="12.0"/>
@@ -460,6 +523,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC9DAF8"/>
         <bgColor rgb="FFC9DAF8"/>
       </patternFill>
@@ -478,19 +547,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FF00FFFF"/>
         <bgColor rgb="FF00FFFF"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="8">
     <border/>
+    <border>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -501,6 +575,45 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFF6F8F9"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFF6F8F9"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFF6F8F9"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFF6F8F9"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -524,22 +637,11 @@
         <color rgb="FF000000"/>
       </bottom>
     </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -549,24 +651,44 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="1" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
+    <xf borderId="2" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="4" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="2" fillId="5" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
+    </xf>
+    <xf borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
@@ -574,72 +696,75 @@
     <xf borderId="0" fillId="0" fontId="2" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="2" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="5" fontId="10" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="5" fontId="10" numFmtId="165" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="2" fillId="5" fontId="11" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="4" fillId="0" fontId="9" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="7" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="2" fillId="5" fontId="10" numFmtId="9" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="4" fontId="15" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="6" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="2" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="2" fillId="6" fontId="8" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="6" fillId="6" fontId="12" numFmtId="166" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -675,8 +800,12 @@
       <border/>
     </dxf>
   </dxfs>
-  <tableStyles count="1">
+  <tableStyles count="2">
     <tableStyle count="2" pivot="0" name="Hoja1-style">
+      <tableStyleElement dxfId="1" type="firstRowStripe"/>
+      <tableStyleElement dxfId="2" type="secondRowStripe"/>
+    </tableStyle>
+    <tableStyle count="2" pivot="0" name="Hoja1-style 2">
       <tableStyleElement dxfId="1" type="firstRowStripe"/>
       <tableStyleElement dxfId="2" type="secondRowStripe"/>
     </tableStyle>
@@ -695,6 +824,15 @@
     <tableColumn name="Column2" id="2"/>
   </tableColumns>
   <tableStyleInfo name="Hoja1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" headerRowCount="0" ref="H4:H9" displayName="Table_2" name="Table_2" id="2">
+  <tableColumns count="1">
+    <tableColumn name="Column1" id="1"/>
+  </tableColumns>
+  <tableStyleInfo name="Hoja1-style 2" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
 </table>
 </file>
 
@@ -920,763 +1058,809 @@
     </row>
     <row r="2">
       <c r="C2" s="2"/>
+      <c r="H2" s="3"/>
     </row>
     <row r="3">
       <c r="C3" s="2"/>
-      <c r="E3" s="3" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>2</v>
       </c>
+      <c r="H3" s="3"/>
     </row>
     <row r="4">
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="D4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="10" t="str">
+        <f t="shared" ref="E4:E9" si="1">CONCATENATE(D4," ",H4)</f>
+        <v>JOSHÚA ANDRÉ BARRANTES</v>
+      </c>
+      <c r="F4" s="11" t="s">
         <v>6</v>
       </c>
+      <c r="H4" s="12" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="5">
-      <c r="B5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="C5" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="D5" s="14" t="s">
         <v>10</v>
       </c>
+      <c r="E5" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>RODRIGO JOAQUIN CALDERON</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="6">
-      <c r="B6" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
+      <c r="B6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="C6" s="13" t="s">
         <v>14</v>
       </c>
+      <c r="D6" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>DIEGO VALENTINO GAMARRA</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7">
-      <c r="B7" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="B7" s="7" t="s">
         <v>18</v>
       </c>
+      <c r="C7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>JHON FRANCO RIDOUTT</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="8">
-      <c r="B8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="10">
+      <c r="B8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="18">
         <v>45526.0</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>21</v>
+      <c r="D8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>ANDREW GABRIEL SERNA</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="11">
+      <c r="B9" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="19">
         <v>45610.0</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>24</v>
+      <c r="D9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="10" t="str">
+        <f t="shared" si="1"/>
+        <v>KARLO ANDRES TORO</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="10">
-      <c r="E10" s="13"/>
-      <c r="F10" s="14"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="22"/>
     </row>
     <row r="11">
-      <c r="B11" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="B11" s="23" t="s">
         <v>31</v>
       </c>
+      <c r="C11" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F11" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="12">
-      <c r="B12" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F12" s="19">
+      <c r="B12" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="28">
         <v>45526.0</v>
       </c>
-      <c r="G12" s="19">
+      <c r="G12" s="28">
         <v>45526.0</v>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="21">
+      <c r="B13" s="25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="30">
         <v>45533.0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="30">
         <v>45536.0</v>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="29">
         <v>1.0</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="18" t="s">
+      <c r="B14" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="E14" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F14" s="21">
+      <c r="F14" s="30">
         <v>45533.0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="30">
         <v>45536.0</v>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="29">
         <v>0.25</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="21">
+      <c r="B15" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="30">
         <v>45536.0</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="30">
         <v>45540.0</v>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="21">
+      <c r="B16" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F16" s="30">
         <v>45536.0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="30">
         <v>45540.0</v>
       </c>
-      <c r="H16" s="20">
+      <c r="H16" s="29">
         <v>0.0</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" s="18" t="s">
+      <c r="B17" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F17" s="30">
+        <v>45536.0</v>
+      </c>
+      <c r="G17" s="30">
+        <v>45540.0</v>
+      </c>
+      <c r="H17" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F18" s="30">
+        <v>45536.0</v>
+      </c>
+      <c r="G18" s="30">
+        <v>45540.0</v>
+      </c>
+      <c r="H18" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19" s="30">
+        <v>45536.0</v>
+      </c>
+      <c r="G19" s="30">
+        <v>45540.0</v>
+      </c>
+      <c r="H19" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C20" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="F20" s="30">
+        <v>45536.0</v>
+      </c>
+      <c r="G20" s="30">
+        <v>45540.0</v>
+      </c>
+      <c r="H20" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="E21" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F21" s="34">
+        <v>45539.0</v>
+      </c>
+      <c r="G21" s="34">
+        <v>45542.0</v>
+      </c>
+      <c r="H21" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="34">
+        <v>45543.0</v>
+      </c>
+      <c r="G22" s="34">
+        <v>45549.0</v>
+      </c>
+      <c r="H22" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F23" s="34">
+        <v>45549.0</v>
+      </c>
+      <c r="G23" s="34">
+        <v>45550.0</v>
+      </c>
+      <c r="H23" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E24" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="34">
+        <v>45551.0</v>
+      </c>
+      <c r="G24" s="34">
+        <v>45554.0</v>
+      </c>
+      <c r="H24" s="29">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" s="35" t="s">
+        <v>83</v>
+      </c>
+      <c r="C25" s="36">
+        <v>45555.0</v>
+      </c>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="38"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>87</v>
+      </c>
+      <c r="F26" s="30">
+        <v>45556.0</v>
+      </c>
+      <c r="G26" s="30">
+        <v>45563.0</v>
+      </c>
+      <c r="H26" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="B27" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="C27" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="F27" s="30">
+        <v>45556.0</v>
+      </c>
+      <c r="G27" s="30">
+        <v>45563.0</v>
+      </c>
+      <c r="H27" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="B28" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="F28" s="30">
+        <v>45564.0</v>
+      </c>
+      <c r="G28" s="30">
+        <v>45570.0</v>
+      </c>
+      <c r="H28" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C29" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" s="30">
+        <v>45571.0</v>
+      </c>
+      <c r="G29" s="30">
+        <v>45575.0</v>
+      </c>
+      <c r="H29" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="30" ht="15.75" customHeight="1">
+      <c r="B30" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C30" s="36">
+        <v>45577.0</v>
+      </c>
+      <c r="D30" s="37"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
+      <c r="H30" s="38"/>
+    </row>
+    <row r="31" ht="15.75" customHeight="1">
+      <c r="B31" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D31" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E31" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F31" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G31" s="30">
+        <v>45591.0</v>
+      </c>
+      <c r="H31" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="B32" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>101</v>
+      </c>
+      <c r="D32" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G32" s="30">
+        <v>45591.0</v>
+      </c>
+      <c r="H32" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="B33" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="26" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G33" s="30">
+        <v>45594.0</v>
+      </c>
+      <c r="H33" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="B34" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="C34" s="26" t="s">
+        <v>109</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G34" s="30">
+        <v>45594.0</v>
+      </c>
+      <c r="H34" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="B35" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C35" s="26" t="s">
+        <v>112</v>
+      </c>
+      <c r="D35" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="E35" s="27" t="s">
+        <v>114</v>
+      </c>
+      <c r="F35" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G35" s="30">
+        <v>45590.0</v>
+      </c>
+      <c r="H35" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="B36" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="30">
+        <v>45578.0</v>
+      </c>
+      <c r="G36" s="30">
+        <v>45594.0</v>
+      </c>
+      <c r="H36" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="B37" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>122</v>
+      </c>
+      <c r="F37" s="30">
+        <v>45595.0</v>
+      </c>
+      <c r="G37" s="30">
+        <v>45602.0</v>
+      </c>
+      <c r="H37" s="39">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="B38" s="25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C38" s="26" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="E38" s="27" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="21">
-        <v>45536.0</v>
-      </c>
-      <c r="G17" s="21">
-        <v>45540.0</v>
-      </c>
-      <c r="H17" s="20">
+      <c r="F38" s="30">
+        <v>45603.0</v>
+      </c>
+      <c r="G38" s="30">
+        <v>45604.0</v>
+      </c>
+      <c r="H38" s="39">
         <v>0.0</v>
       </c>
     </row>
-    <row r="18">
-      <c r="B18" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="21">
-        <v>45536.0</v>
-      </c>
-      <c r="G18" s="21">
-        <v>45540.0</v>
-      </c>
-      <c r="H18" s="20">
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="B39" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="D39" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="F39" s="30">
+        <v>45605.0</v>
+      </c>
+      <c r="G39" s="34">
+        <v>45609.0</v>
+      </c>
+      <c r="H39" s="39">
         <v>0.0</v>
       </c>
     </row>
-    <row r="19">
-      <c r="B19" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="F19" s="21">
-        <v>45536.0</v>
-      </c>
-      <c r="G19" s="21">
-        <v>45540.0</v>
-      </c>
-      <c r="H19" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="21">
-        <v>45536.0</v>
-      </c>
-      <c r="G20" s="21">
-        <v>45540.0</v>
-      </c>
-      <c r="H20" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>67</v>
-      </c>
-      <c r="E21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F21" s="25">
-        <v>45539.0</v>
-      </c>
-      <c r="G21" s="25">
-        <v>45542.0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>70</v>
-      </c>
-      <c r="E22" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="F22" s="25">
-        <v>45543.0</v>
-      </c>
-      <c r="G22" s="25">
-        <v>45549.0</v>
-      </c>
-      <c r="H22" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="E23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="25">
-        <v>45549.0</v>
-      </c>
-      <c r="G23" s="25">
-        <v>45550.0</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E24" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="F24" s="25">
-        <v>45551.0</v>
-      </c>
-      <c r="G24" s="25">
-        <v>45554.0</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="C25" s="27">
-        <v>45555.0</v>
-      </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
-    </row>
-    <row r="26">
-      <c r="B26" s="16" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" s="17" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="F26" s="21">
-        <v>45556.0</v>
-      </c>
-      <c r="G26" s="21">
-        <v>45563.0</v>
-      </c>
-      <c r="H26" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="F27" s="21">
-        <v>45556.0</v>
-      </c>
-      <c r="G27" s="21">
-        <v>45563.0</v>
-      </c>
-      <c r="H27" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="17" t="s">
-        <v>86</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>87</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="F28" s="21">
-        <v>45564.0</v>
-      </c>
-      <c r="G28" s="21">
-        <v>45570.0</v>
-      </c>
-      <c r="H28" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F29" s="21">
-        <v>45571.0</v>
-      </c>
-      <c r="G29" s="21">
-        <v>45575.0</v>
-      </c>
-      <c r="H29" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="30" ht="15.75" customHeight="1">
-      <c r="B30" s="26" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="27">
-        <v>45577.0</v>
-      </c>
-      <c r="D30" s="28"/>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
-    </row>
-    <row r="31" ht="15.75" customHeight="1">
-      <c r="B31" s="16" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" s="17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="E31" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G31" s="21">
-        <v>45591.0</v>
-      </c>
-      <c r="H31" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="32" ht="15.75" customHeight="1">
-      <c r="B32" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="C32" s="17" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G32" s="21">
-        <v>45591.0</v>
-      </c>
-      <c r="H32" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="33" ht="15.75" customHeight="1">
-      <c r="B33" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="17" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F33" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G33" s="21">
-        <v>45594.0</v>
-      </c>
-      <c r="H33" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="34" ht="15.75" customHeight="1">
-      <c r="B34" s="16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C34" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="F34" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G34" s="21">
-        <v>45594.0</v>
-      </c>
-      <c r="H34" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="35" ht="15.75" customHeight="1">
-      <c r="B35" s="16" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="17" t="s">
-        <v>106</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="F35" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G35" s="21">
-        <v>45590.0</v>
-      </c>
-      <c r="H35" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="36" ht="15.75" customHeight="1">
-      <c r="B36" s="16" t="s">
-        <v>109</v>
-      </c>
-      <c r="C36" s="17" t="s">
-        <v>110</v>
-      </c>
-      <c r="D36" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="E36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="F36" s="21">
-        <v>45578.0</v>
-      </c>
-      <c r="G36" s="21">
-        <v>45594.0</v>
-      </c>
-      <c r="H36" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="37" ht="15.75" customHeight="1">
-      <c r="B37" s="16" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="17" t="s">
-        <v>114</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="F37" s="21">
-        <v>45595.0</v>
-      </c>
-      <c r="G37" s="21">
-        <v>45602.0</v>
-      </c>
-      <c r="H37" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="38" ht="15.75" customHeight="1">
-      <c r="B38" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="C38" s="17" t="s">
-        <v>118</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="F38" s="21">
-        <v>45603.0</v>
-      </c>
-      <c r="G38" s="21">
-        <v>45604.0</v>
-      </c>
-      <c r="H38" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="39" ht="15.75" customHeight="1">
-      <c r="B39" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="C39" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F39" s="21">
-        <v>45605.0</v>
-      </c>
-      <c r="G39" s="25">
-        <v>45609.0</v>
-      </c>
-      <c r="H39" s="30">
-        <v>0.0</v>
-      </c>
-    </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="B40" s="34" t="s">
-        <v>120</v>
-      </c>
-      <c r="C40" s="35">
+      <c r="B40" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C40" s="44">
         <v>45610.0</v>
       </c>
-      <c r="D40" s="28"/>
-      <c r="E40" s="28"/>
-      <c r="F40" s="28"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="37"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="37"/>
+      <c r="H40" s="38"/>
     </row>
     <row r="41" ht="15.75" customHeight="1"/>
     <row r="42" ht="15.75" customHeight="1"/>
@@ -2638,8 +2822,9 @@
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
   <pageSetup paperSize="9" orientation="landscape"/>
   <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId4"/>
+  <tableParts count="2">
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>